--- a/config_aomi_9.21/fish3d_hall_config.xlsx
+++ b/config_aomi_9.21/fish3d_hall_config.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
